--- a/data/kbvreport_export/faktenblatttabellen_2021-07-04.xlsx
+++ b/data/kbvreport_export/faktenblatttabellen_2021-07-04.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Vorwoche</t>
   </si>
   <si>
-    <t xml:space="preserve">Stand 6.7.</t>
+    <t xml:space="preserve">Stand 7.7.</t>
   </si>
   <si>
     <t xml:space="preserve">Anteil_Veraenderung</t>
@@ -46,37 +46,37 @@
     <t xml:space="preserve">Gesamt</t>
   </si>
   <si>
-    <t xml:space="preserve">44886784 (54,0 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47213139 (56,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2,8 PP</t>
+    <t xml:space="preserve">45307672 (54,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47505270 (57,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2,6 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Nicht vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">15083526 (18,1 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14517136 (17,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0,7 PP</t>
+    <t xml:space="preserve">14954756 (18,0 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14302749 (17,2 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,8 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Vollst. geimpft</t>
   </si>
   <si>
-    <t xml:space="preserve">29803258 (35,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32696003 (39,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3,5 PP</t>
+    <t xml:space="preserve">30352916 (36,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33202521 (39,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3,4 PP</t>
   </si>
   <si>
     <t xml:space="preserve">Impffortschritt</t>
@@ -97,34 +97,34 @@
     <t xml:space="preserve">   NA %</t>
   </si>
   <si>
-    <t xml:space="preserve">5597510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4959613</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-11,4 %</t>
+    <t xml:space="preserve">5603183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4970657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-11,3 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in Impfzentren</t>
   </si>
   <si>
-    <t xml:space="preserve">2686728 ( 48 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2555947 ( 51,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -4,9 %</t>
+    <t xml:space="preserve">2692401 ( 48,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2566991 ( 51,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -4,7 %</t>
   </si>
   <si>
     <t xml:space="preserve">davon in ärztl. Praxen</t>
   </si>
   <si>
-    <t xml:space="preserve">2910782 ( 52 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2403666 ( 48,5 %)</t>
+    <t xml:space="preserve">2910782 ( 51,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2403666 ( 48,4 %)</t>
   </si>
   <si>
     <t xml:space="preserve">-17,4 %</t>
@@ -148,142 +148,142 @@
     <t xml:space="preserve">7-Tage-Inzidenz 60+</t>
   </si>
   <si>
-    <t xml:space="preserve">56,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39,3</t>
+    <t xml:space="preserve">57,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39,9</t>
   </si>
   <si>
     <t xml:space="preserve">Baden-Württemberg</t>
   </si>
   <si>
-    <t xml:space="preserve">56,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,8</t>
+    <t xml:space="preserve">56,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39,4</t>
   </si>
   <si>
     <t xml:space="preserve">Bayern</t>
   </si>
   <si>
-    <t xml:space="preserve">54,8</t>
+    <t xml:space="preserve">55,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandenburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bremen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,6</t>
   </si>
   <si>
     <t xml:space="preserve">38,4</t>
   </si>
   <si>
-    <t xml:space="preserve">Berlin</t>
+    <t xml:space="preserve">Hessen</t>
   </si>
   <si>
     <t xml:space="preserve">56,2</t>
   </si>
   <si>
+    <t xml:space="preserve">38,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niedersachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordrhein-Westfalen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rheinland-Pfalz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saarland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sachsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48,8</t>
+  </si>
+  <si>
     <t xml:space="preserve">37,9</t>
   </si>
   <si>
-    <t xml:space="preserve">Brandenburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35,7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bremen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamburg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hessen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mecklenburg-Vorpommern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56,4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niedersachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordrhein-Westfalen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">59,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42,6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rheinland-Pfalz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saarland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sachsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48,5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sachsen-Anhalt</t>
   </si>
   <si>
-    <t xml:space="preserve">53,3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">37,7</t>
+    <t xml:space="preserve">53,6</t>
   </si>
   <si>
     <t xml:space="preserve">Schleswig-Holstein</t>
   </si>
   <si>
-    <t xml:space="preserve">60,2</t>
+    <t xml:space="preserve">60,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41,2</t>
   </si>
   <si>
     <t xml:space="preserve">Thüringen</t>
   </si>
   <si>
-    <t xml:space="preserve">52,8</t>
+    <t xml:space="preserve">52,9</t>
   </si>
   <si>
     <t xml:space="preserve">Impfstoffdosen</t>
@@ -295,28 +295,28 @@
     <t xml:space="preserve">Biontech/Pfizer</t>
   </si>
   <si>
-    <t xml:space="preserve">53369718 (73,3 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57175595 (73,4 %)</t>
+    <t xml:space="preserve">54060288 (73,3 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57787506 (73,5 %)</t>
   </si>
   <si>
     <t xml:space="preserve">Erstimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">30274922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32248146</t>
+    <t xml:space="preserve">30621848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32489931</t>
   </si>
   <si>
     <t xml:space="preserve">Zweitimpfungen</t>
   </si>
   <si>
-    <t xml:space="preserve">23094796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24927449</t>
+    <t xml:space="preserve">23438440</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25297575</t>
   </si>
   <si>
     <t xml:space="preserve">geliefert</t>
@@ -331,22 +331,22 @@
     <t xml:space="preserve">Moderna</t>
   </si>
   <si>
-    <t xml:space="preserve">6263894 ( 8,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6878939 ( 8,8 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3630086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3833985</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2633808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3044954</t>
+    <t xml:space="preserve">6360911 ( 8,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6977663 ( 8,9 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3666375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3859350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2694536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3118313</t>
   </si>
   <si>
     <t xml:space="preserve">7641280</t>
@@ -355,22 +355,22 @@
     <t xml:space="preserve">AstraZeneca</t>
   </si>
   <si>
-    <t xml:space="preserve">11289744 (15,5 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11821152 (15,2 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9098433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9114280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2191311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2706872</t>
+    <t xml:space="preserve">11427437 (15,5 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11872824 (15,1 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9113473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9121090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2313964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2751734</t>
   </si>
   <si>
     <t xml:space="preserve">14508261</t>
@@ -382,10 +382,10 @@
     <t xml:space="preserve">Johnson&amp;Johnson</t>
   </si>
   <si>
-    <t xml:space="preserve">1883343 ( 2,6 %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016728 ( 2,6 %)</t>
+    <t xml:space="preserve">1905976 ( 2,6 %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2034899 ( 2,6 %)</t>
   </si>
   <si>
     <t xml:space="preserve">2893697</t>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>259</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>261</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
         <v>263</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>263</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>271</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>274</v>
@@ -2512,10 +2512,10 @@
         <v>93192</v>
       </c>
       <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -2526,16 +2526,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="n">
         <v>60145</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -2546,16 +2546,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" t="n">
         <v>13444</v>
       </c>
       <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
       </c>
       <c r="E7" t="n">
         <v>9</v>
@@ -2566,13 +2566,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" t="n">
         <v>52647</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
         <v>59</v>
@@ -2675,7 +2675,7 @@
         <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
         <v>6</v>
@@ -2686,16 +2686,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="n">
         <v>28208</v>
       </c>
       <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
         <v>76</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
@@ -2706,16 +2706,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="n">
         <v>98491</v>
       </c>
       <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>68</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -2735,7 +2735,7 @@
         <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -2746,16 +2746,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" t="n">
         <v>80886</v>
       </c>
       <c r="C17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -2775,7 +2775,7 @@
         <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
